--- a/biology/Zoologie/Austrochaperina_pluvialis/Austrochaperina_pluvialis.xlsx
+++ b/biology/Zoologie/Austrochaperina_pluvialis/Austrochaperina_pluvialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrochaperina pluvialis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrochaperina pluvialis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est du Queensland en Australie[1],[2]. Elle se rencontre de la ville d'Ingham jusqu'à celle de Cooktown, ce qui représente une aire de répartition d'environ 15 200 km2. Elle est donnée pour être présente jusqu'à 1 300 mm d'altitude, toutefois de récentes expéditions[3] ne l'ont rencontrée que jusqu'à 900 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est du Queensland en Australie,. Elle se rencontre de la ville d'Ingham jusqu'à celle de Cooktown, ce qui représente une aire de répartition d'environ 15 200 km2. Elle est donnée pour être présente jusqu'à 1 300 mm d'altitude, toutefois de récentes expéditions ne l'ont rencontrée que jusqu'à 900 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrochaperina pluvialis mesure jusqu'à 26 mm.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin pluvialis, « pluvieux », lui a été donné en référence à son habitat, la forêt tropicale (rain forest en anglais).
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zweifel, 1965 : Revisionary notes on Australian microhylid frogs of the genus Sphenophryne. American Museum novitates, no 2214, p. 1-9 (texte intégral).</t>
         </is>
